--- a/iselUssSyncV2/OutputWSL/20220517_1200_D60L474W90Q8.8U0.17H64.2G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1200_D60L474W90Q8.8U0.17H64.2G2_S_DATA.xlsx
@@ -351,16 +351,16 @@
         <v>0.064690700433419887</v>
       </c>
       <c r="G2" s="0">
-        <v>0.069318452380952411</v>
+        <v>0.068213705179282894</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0072013095238095135</v>
+        <v>0.0053013095238095076</v>
       </c>
       <c r="I2" s="0">
         <v>0.049677868012275077</v>
       </c>
       <c r="J2" s="0">
-        <v>0.048120634920634918</v>
+        <v>0.04546700942262695</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -408,7 +408,7 @@
         <v>0.2161515215443339</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.21027044622449259</v>
+        <v>0.22894474280607183</v>
       </c>
       <c r="AA2" s="0">
         <v>0.22234799744357103</v>
